--- a/BeerMeDB.xlsx
+++ b/BeerMeDB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24426"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-80" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Beer Category" sheetId="1" r:id="rId1"/>
@@ -1849,7 +1849,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1927,7 +1927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>

--- a/BeerMeDB.xlsx
+++ b/BeerMeDB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24426"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="-80" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Beer Category" sheetId="1" r:id="rId1"/>
@@ -1002,10 +1002,10 @@
   <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="8.6640625" style="11" customWidth="1"/>
     <col min="2" max="2" width="22.33203125" style="16" bestFit="1" customWidth="1"/>
@@ -1021,7 +1021,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="105" customHeight="1">
+    <row r="2" spans="1:6" ht="15">
       <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="135" customHeight="1">
+    <row r="3" spans="1:6" ht="79">
       <c r="A3" s="9">
         <v>0</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="90" customHeight="1">
+    <row r="4" spans="1:6" ht="105">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" ht="15">
       <c r="A32" s="10">
         <v>30</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" ht="15">
       <c r="A33" s="10">
         <v>31</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" ht="15">
       <c r="A34" s="10">
         <v>32</v>
       </c>
@@ -1594,7 +1594,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" ht="15">
       <c r="A35" s="10">
         <v>33</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" ht="15">
       <c r="A36" s="10">
         <v>34</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" ht="15">
       <c r="A37" s="10">
         <v>35</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" ht="15">
       <c r="A38" s="10">
         <v>36</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" ht="15">
       <c r="A39" s="10">
         <v>37</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" ht="15">
       <c r="A40" s="10">
         <v>38</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" ht="15">
       <c r="A41" s="10">
         <v>39</v>
       </c>
@@ -1657,7 +1657,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" ht="15">
       <c r="A42" s="10">
         <v>40</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" ht="15">
       <c r="A43" s="10">
         <v>41</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" ht="15">
       <c r="A44" s="10">
         <v>42</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" ht="15">
       <c r="A45" s="10">
         <v>43</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" ht="15">
       <c r="A46" s="10">
         <v>44</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" ht="15">
       <c r="A47" s="10">
         <v>45</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" ht="15">
       <c r="A48" s="10">
         <v>46</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" ht="15">
       <c r="A49" s="10">
         <v>47</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" ht="15">
       <c r="A50" s="10">
         <v>48</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" ht="15">
       <c r="A51" s="10">
         <v>49</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" ht="15">
       <c r="A52" s="10">
         <v>50</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" ht="15">
       <c r="A53" s="10">
         <v>51</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" ht="15">
       <c r="A54" s="10">
         <v>52</v>
       </c>
@@ -1774,7 +1774,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" ht="15">
       <c r="A55" s="10">
         <v>53</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" ht="15">
       <c r="A56" s="10">
         <v>54</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" ht="15">
       <c r="A57" s="10">
         <v>55</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" ht="15">
       <c r="A58" s="10">
         <v>56</v>
       </c>
@@ -1810,25 +1810,25 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" ht="15">
       <c r="C59" s="2"/>
       <c r="F59" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" ht="15">
       <c r="C60" s="2"/>
       <c r="F60" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" ht="15">
       <c r="C61" s="2"/>
       <c r="F61" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" ht="15">
       <c r="C62" s="2"/>
       <c r="F62" s="10" t="s">
         <v>18</v>
@@ -1849,7 +1849,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1927,7 +1927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
